--- a/data/trans_dic/P57_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2079054062600663</v>
+        <v>0.2103287975806764</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2723658774221391</v>
+        <v>0.2673583444886022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1764167681210798</v>
+        <v>0.1734916181725958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2664682877573816</v>
+        <v>0.2662325352193822</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1976439635497512</v>
+        <v>0.196644500536135</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2765454336331594</v>
+        <v>0.2821923812142125</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2581192092723774</v>
+        <v>0.2616343329714941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3712481931300936</v>
+        <v>0.369530725994414</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.222108767934242</v>
+        <v>0.2173005109919637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3343994045590778</v>
+        <v>0.3371566939515906</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2317059726849758</v>
+        <v>0.231451794754817</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3383986176806604</v>
+        <v>0.3405905992753293</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.2813706333288097</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4785260667803272</v>
+        <v>0.4785260667803271</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2755506657308556</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2536815732360128</v>
+        <v>0.2521574442247423</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4447680580597396</v>
+        <v>0.4364382015381431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2468677983421245</v>
+        <v>0.2466568035735571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3761026647000248</v>
+        <v>0.3741854136579602</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2585277512362442</v>
+        <v>0.2572685348265025</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4132537618221089</v>
+        <v>0.4160884418546856</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3125092179669499</v>
+        <v>0.3163374733220725</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5188379037181801</v>
+        <v>0.5125435863946841</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3062558976189989</v>
+        <v>0.3031781076980223</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4284026952314995</v>
+        <v>0.4252432340085375</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3002008532297731</v>
+        <v>0.2982575661154552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4570625439396306</v>
+        <v>0.4584545269266878</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.2788339914542436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4148140610667777</v>
+        <v>0.4148140610667778</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3123169857378397</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.4528129829843023</v>
+        <v>0.4528129829843024</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3102086224966933</v>
+        <v>0.3091230197404765</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4570114993999807</v>
+        <v>0.4548829863158927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2473186255591315</v>
+        <v>0.2488078766090746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3875825443092681</v>
+        <v>0.3879670239941368</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2891762054382319</v>
+        <v>0.2910005537368552</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4327693181741709</v>
+        <v>0.4296022393458434</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3766569164936784</v>
+        <v>0.3764455459852287</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5261024033516595</v>
+        <v>0.5235517594480108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3127303869448156</v>
+        <v>0.3121306715579393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4440249218891266</v>
+        <v>0.440791052549527</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3351883750065263</v>
+        <v>0.3354281520735432</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4741824979386665</v>
+        <v>0.4725779539223434</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.4407951033421826</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4931920488174063</v>
+        <v>0.4931920488174062</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3865628217171129</v>
@@ -870,7 +870,7 @@
         <v>0.4142040965712208</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.4966936838329018</v>
+        <v>0.4966936838329019</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3951919719509497</v>
+        <v>0.396296654443021</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4572323301904603</v>
+        <v>0.4577019044663929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3410569618154204</v>
+        <v>0.3381008857265936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4727751184660201</v>
+        <v>0.4700612705482244</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.382294151019937</v>
+        <v>0.3821756189447979</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4752169383816799</v>
+        <v>0.4722598172461737</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4821701416560718</v>
+        <v>0.486402640258993</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.530430835124403</v>
+        <v>0.5286710086360118</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4365689816942049</v>
+        <v>0.4297293458098542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.531893557169416</v>
+        <v>0.5298120382607463</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4490064061062418</v>
+        <v>0.4458554140666673</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5196663269995399</v>
+        <v>0.5208308561193391</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.2835576315676288</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.4371339751732576</v>
+        <v>0.4371339751732577</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2882448985987603</v>
+        <v>0.2873341862841766</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4455553732821649</v>
+        <v>0.4451627415510334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2481471867747398</v>
+        <v>0.2478384044273019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3967579155407449</v>
+        <v>0.3958282209632842</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2721411239490136</v>
+        <v>0.2732178255430215</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4261788245208062</v>
+        <v>0.4251688672902114</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3210312980131261</v>
+        <v>0.320687914103934</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4820710008679014</v>
+        <v>0.4835900787396575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2791525832683051</v>
+        <v>0.2793189307769781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4261495397880951</v>
+        <v>0.4276832114648544</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2946475579979348</v>
+        <v>0.2944159486357591</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4489222105388375</v>
+        <v>0.4493472135934469</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>233884</v>
+        <v>236611</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>135089</v>
+        <v>132605</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>221128</v>
+        <v>217462</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>164588</v>
+        <v>164443</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>470076</v>
+        <v>467699</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>307975</v>
+        <v>314263</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>290373</v>
+        <v>294327</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>184133</v>
+        <v>183281</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>278401</v>
+        <v>272374</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>206547</v>
+        <v>208250</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>551089</v>
+        <v>550485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>376857</v>
+        <v>379298</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>229166</v>
+        <v>227789</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>426088</v>
+        <v>418108</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>247270</v>
+        <v>247058</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>416552</v>
+        <v>414429</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>492492</v>
+        <v>490093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>853596</v>
+        <v>859451</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>282308</v>
+        <v>285766</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>497047</v>
+        <v>491017</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>306754</v>
+        <v>303672</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>474477</v>
+        <v>470978</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>571879</v>
+        <v>568177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>944086</v>
+        <v>946961</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>254603</v>
+        <v>253712</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>476760</v>
+        <v>474540</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>190399</v>
+        <v>191546</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>404470</v>
+        <v>404871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>459964</v>
+        <v>462866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>903096</v>
+        <v>896487</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>309141</v>
+        <v>308967</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>548837</v>
+        <v>546176</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>240757</v>
+        <v>240295</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>463371</v>
+        <v>459996</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>533151</v>
+        <v>533533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>989516</v>
+        <v>986168</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>199415</v>
+        <v>199972</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>445852</v>
+        <v>446310</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>165559</v>
+        <v>164124</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>428845</v>
+        <v>426384</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>378483</v>
+        <v>378365</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>894449</v>
+        <v>888883</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>243304</v>
+        <v>245440</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>517228</v>
+        <v>515512</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>211923</v>
+        <v>208603</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>482471</v>
+        <v>480582</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>444530</v>
+        <v>441410</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>978111</v>
+        <v>980303</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>966677</v>
+        <v>963623</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1547105</v>
+        <v>1545742</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>871084</v>
+        <v>870001</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1458429</v>
+        <v>1455011</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1867982</v>
+        <v>1875372</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3046400</v>
+        <v>3039181</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1076631</v>
+        <v>1075480</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1673899</v>
+        <v>1679173</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>979924</v>
+        <v>980508</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1566469</v>
+        <v>1572106</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2022466</v>
+        <v>2020877</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3208974</v>
+        <v>3212012</v>
       </c>
     </row>
     <row r="24">
